--- a/data/tasks.xlsx
+++ b/data/tasks.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biogaseng-my.sharepoint.com/personal/abhishek_biogaseng_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA1B94D7-AA2A-4528-8EB7-7314AF2FFCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{FA1B94D7-AA2A-4528-8EB7-7314AF2FFCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E58827E6-23D3-4759-BF2B-AC0ECB84430B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{C4855F10-A3D0-4871-ACAC-67F3C0B3855D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C4855F10-A3D0-4871-ACAC-67F3C0B3855D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="141">
   <si>
     <t>task_name</t>
   </si>
@@ -92,18 +92,327 @@
     <t>Vendor Co-ordination</t>
   </si>
   <si>
+    <t>Instrument List</t>
+  </si>
+  <si>
+    <t>Network Architecture</t>
+  </si>
+  <si>
+    <t>Business Development</t>
+  </si>
+  <si>
+    <t>Mechanical Technical Lead Task</t>
+  </si>
+  <si>
+    <t>Mechanical Department Supervisor Task</t>
+  </si>
+  <si>
+    <t>US Draftsperson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US E&amp;I Designer </t>
+  </si>
+  <si>
+    <t>3D Modeling</t>
+  </si>
+  <si>
+    <t>Site Plan</t>
+  </si>
+  <si>
+    <t>Plot Plan</t>
+  </si>
+  <si>
+    <t>Area Classification</t>
+  </si>
+  <si>
+    <t>HSE Location Plan</t>
+  </si>
+  <si>
+    <t>Submittal Binders Preparation</t>
+  </si>
+  <si>
+    <t>Piping Layout-2D</t>
+  </si>
+  <si>
+    <t>Line List</t>
+  </si>
+  <si>
+    <t>Valve List</t>
+  </si>
+  <si>
+    <t>Speciality Item List</t>
+  </si>
+  <si>
+    <t>Material Take-off (MTO)</t>
+  </si>
+  <si>
+    <t>Instrument Hook-up Drawings</t>
+  </si>
+  <si>
+    <t>Instrument Location Plan</t>
+  </si>
+  <si>
+    <t>Isometric Drawings</t>
+  </si>
+  <si>
+    <t>Piping Material Specification</t>
+  </si>
+  <si>
+    <t>Piping Support Standard</t>
+  </si>
+  <si>
+    <t>3D Database</t>
+  </si>
+  <si>
+    <t>Guage &amp; Valve Location Plan</t>
+  </si>
+  <si>
+    <t>Datasheet Preparation</t>
+  </si>
+  <si>
+    <t>Vendor Drawing Review</t>
+  </si>
+  <si>
+    <t>P&amp;ID/Line List Review</t>
+  </si>
+  <si>
+    <t>Electrical Drawing Review</t>
+  </si>
+  <si>
+    <t>Civil/Structure Drawing Review</t>
+  </si>
+  <si>
+    <t>Model Review</t>
+  </si>
+  <si>
+    <t>Document Checking</t>
+  </si>
+  <si>
+    <t>Layout Checking</t>
+  </si>
+  <si>
+    <t>Isometric checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Doc. Preparation </t>
+  </si>
+  <si>
+    <t>As-builting</t>
+  </si>
+  <si>
+    <t>Construction/Commissioning Support</t>
+  </si>
+  <si>
+    <t>Loss of Pay</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Proposals</t>
+  </si>
+  <si>
+    <t>Project Management Activities</t>
+  </si>
+  <si>
+    <t>Process Deliverables</t>
+  </si>
+  <si>
+    <t>Transmittal Processing -Incoming</t>
+  </si>
+  <si>
+    <t>Transmittal Processing -Outgoing</t>
+  </si>
+  <si>
+    <t>Transmittal Log Update</t>
+  </si>
+  <si>
+    <t>Correspondence(Procore)</t>
+  </si>
+  <si>
+    <t>Document Controller Task</t>
+  </si>
+  <si>
+    <t>BEMS Control Panel</t>
+  </si>
+  <si>
+    <t>BOP Panel Drawings</t>
+  </si>
+  <si>
+    <t>Server Rack Drawings</t>
+  </si>
+  <si>
+    <t>Remote IO's Panel</t>
+  </si>
+  <si>
+    <t>Costing of panel</t>
+  </si>
+  <si>
+    <t>Bill of material of panel</t>
+  </si>
+  <si>
+    <t>Instrument list prepared</t>
+  </si>
+  <si>
+    <t>Vendor Document check</t>
+  </si>
+  <si>
+    <t>As built Drawing</t>
+  </si>
+  <si>
+    <t>Correction in old drawing</t>
+  </si>
+  <si>
+    <t>IOs list prepared</t>
+  </si>
+  <si>
+    <t>Cable schedule checking</t>
+  </si>
+  <si>
+    <t>30 % Submittal</t>
+  </si>
+  <si>
+    <t>60 % Submittal</t>
+  </si>
+  <si>
+    <t>90 % Submittal</t>
+  </si>
+  <si>
+    <t>IFC</t>
+  </si>
+  <si>
+    <t>Latest P&amp;I cross check as per IOs list</t>
+  </si>
+  <si>
+    <t>Internal meeting in Night</t>
+  </si>
+  <si>
+    <t>Electrical Cad work</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>Construction Management</t>
+  </si>
+  <si>
+    <t>Mechanical &amp; Piping Engineering Task</t>
+  </si>
+  <si>
+    <t>Process Technical Lead Task</t>
+  </si>
+  <si>
+    <t>OMAI</t>
+  </si>
+  <si>
+    <t>PLC &amp; SCADA Development</t>
+  </si>
+  <si>
+    <t>Basis Of Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Flow Diagram </t>
+  </si>
+  <si>
+    <t>Cause &amp; Effect Matrix</t>
+  </si>
+  <si>
+    <t>Control Narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover Sheet &amp; Process Index Sheet </t>
+  </si>
+  <si>
+    <t>Hazop Participation</t>
+  </si>
+  <si>
+    <t>Heat &amp; Mass Balance</t>
+  </si>
+  <si>
+    <t>Inter-Disciplinary Co-Ordination</t>
+  </si>
+  <si>
+    <t>Operation &amp; Maintenance Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piping &amp; Instrumentation Diagram </t>
+  </si>
+  <si>
+    <t>Process Data Sheets For Equipments / Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Flow Diagram </t>
+  </si>
+  <si>
+    <t>Process Input For Valve List / Instrument List</t>
+  </si>
+  <si>
+    <t>Vendor Document Review - Post Po Placement</t>
+  </si>
+  <si>
+    <t>Vendor Document Review - Quotation Stage</t>
+  </si>
+  <si>
+    <t>Engineering Supervision - Process India</t>
+  </si>
+  <si>
+    <t>Project Proposal Work</t>
+  </si>
+  <si>
+    <t>Post Commissioning Engineering Support</t>
+  </si>
+  <si>
+    <t>Client Query Resolution</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Procurement Task</t>
+  </si>
+  <si>
+    <t>Procurement</t>
+  </si>
+  <si>
+    <t>Iron Chelate Development</t>
+  </si>
+  <si>
+    <t>LCO2</t>
+  </si>
+  <si>
+    <t>Product Development</t>
+  </si>
+  <si>
+    <t>NRU Development</t>
+  </si>
+  <si>
+    <t>BHT/CDM Skid</t>
+  </si>
+  <si>
+    <t>Project Controls Lead</t>
+  </si>
+  <si>
+    <t>Project Analyst</t>
+  </si>
+  <si>
+    <t>Project Controls</t>
+  </si>
+  <si>
+    <t>Document Controls</t>
+  </si>
+  <si>
+    <t>IT &amp; OMAI</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cover Sheet </t>
   </si>
   <si>
     <t>Index Sheet</t>
   </si>
   <si>
-    <t>Instrument List</t>
-  </si>
-  <si>
-    <t>Network Architecture</t>
-  </si>
-  <si>
     <t>Control Network Diagram</t>
   </si>
   <si>
@@ -149,19 +458,7 @@
     <t>FAT Activities</t>
   </si>
   <si>
-    <t>controls</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Business Development</t>
-  </si>
-  <si>
-    <t>Product Development</t>
+    <t>Controls</t>
   </si>
 </sst>
 </file>
@@ -177,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,7 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,16 +512,419 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -638,17 +1344,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B731A9-3913-45A0-981B-81703FA272ED}">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F912ABBC-33AD-4BD7-ABC6-3BD681C87C8C}">
+  <dimension ref="A1:B307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B274" sqref="B274:B307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -660,296 +1366,2532 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>86</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>88</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>90</v>
+      </c>
+      <c r="B191" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>91</v>
+      </c>
+      <c r="B192" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>92</v>
+      </c>
+      <c r="B193" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>93</v>
+      </c>
+      <c r="B194" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>94</v>
+      </c>
+      <c r="B195" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>95</v>
+      </c>
+      <c r="B196" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>96</v>
+      </c>
+      <c r="B197" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>97</v>
+      </c>
+      <c r="B198" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>32</v>
+      </c>
+      <c r="B199" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>98</v>
+      </c>
+      <c r="B200" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>99</v>
+      </c>
+      <c r="B201" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>100</v>
+      </c>
+      <c r="B202" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>101</v>
+      </c>
+      <c r="B203" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>102</v>
+      </c>
+      <c r="B204" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>103</v>
+      </c>
+      <c r="B205" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>104</v>
+      </c>
+      <c r="B206" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>88</v>
+      </c>
+      <c r="B207" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>55</v>
+      </c>
+      <c r="B208" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>105</v>
+      </c>
+      <c r="B209" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>106</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>107</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>110</v>
+      </c>
+      <c r="B231" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>112</v>
+      </c>
+      <c r="B250" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>113</v>
+      </c>
+      <c r="B251" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>114</v>
+      </c>
+      <c r="B252" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>115</v>
+      </c>
+      <c r="B253" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>116</v>
+      </c>
+      <c r="B254" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>117</v>
+      </c>
+      <c r="B271" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>118</v>
+      </c>
+      <c r="B272" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>123</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>124</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>18</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>19</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>125</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>126</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>127</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>128</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>129</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>130</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>131</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>132</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>133</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>134</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>135</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>136</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>137</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>138</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>139</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A36">
+  <conditionalFormatting sqref="A2:A21">
+    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A53">
+    <cfRule type="duplicateValues" dxfId="45" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:A53">
+    <cfRule type="duplicateValues" dxfId="44" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A73">
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:A94">
+    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:A112">
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="duplicateValues" dxfId="32" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133:A151">
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:A172">
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A212">
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:A231">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A255:A270">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A255:A272">
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A271:A272">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A273:A307">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
     <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A17">
+  <conditionalFormatting sqref="A273:A288">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
     <cfRule type="duplicateValues" dxfId="5" priority="8"/>
     <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A36">
+  <conditionalFormatting sqref="A289:A307">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
